--- a/svbWebPaymentUsers/QA/dump-qa-client.xlsx
+++ b/svbWebPaymentUsers/QA/dump-qa-client.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1300" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="32500" yWindow="9640" windowWidth="25600" windowHeight="9080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dump-qa-client.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>Client Id</t>
   </si>
@@ -295,13 +295,16 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,8 +312,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +354,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -345,10 +370,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,8 +410,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -696,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -713,7 +785,7 @@
     <col min="7" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>89</v>
       </c>
@@ -733,7 +805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>90</v>
       </c>
@@ -753,7 +825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -773,7 +845,7 @@
         <v>15241255</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
@@ -793,7 +865,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>90</v>
       </c>
@@ -813,17 +885,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>5005797</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -832,18 +904,21 @@
       <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="J6" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="10">
         <v>5011486</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -852,8 +927,11 @@
       <c r="F7" s="7">
         <v>13008542</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="J7" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
@@ -873,7 +951,7 @@
         <v>45830360</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>91</v>
       </c>
@@ -893,7 +971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
         <v>91</v>
       </c>
@@ -913,7 +991,7 @@
         <v>62247311</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
@@ -933,7 +1011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
         <v>91</v>
       </c>
@@ -953,7 +1031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -973,27 +1051,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="10">
         <v>5100876</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1013,7 +1091,7 @@
         <v>5844815</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
         <v>91</v>
       </c>
@@ -1037,13 +1115,13 @@
       <c r="A17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="10">
         <v>5119156</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1194,11 +1272,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F24">
+  <sortState ref="A2:J24">
     <sortCondition descending="1" ref="A2:A24"/>
     <sortCondition ref="B2:B24"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/svbWebPaymentUsers/QA/dump-qa-client.xlsx
+++ b/svbWebPaymentUsers/QA/dump-qa-client.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32500" yWindow="9640" windowWidth="25600" windowHeight="9080" tabRatio="500"/>
+    <workbookView xWindow="65920" yWindow="6760" windowWidth="25600" windowHeight="13200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dump-qa-client.csv" sheetId="1" r:id="rId1"/>
@@ -370,8 +370,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -418,7 +424,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -429,6 +435,9 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -439,6 +448,9 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -770,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1095,19 +1107,19 @@
       <c r="A16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="10">
         <v>5107936</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="9" t="s">
         <v>48</v>
       </c>
     </row>

--- a/svbWebPaymentUsers/QA/dump-qa-client.xlsx
+++ b/svbWebPaymentUsers/QA/dump-qa-client.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="65920" yWindow="6760" windowWidth="25600" windowHeight="13200" tabRatio="500"/>
+    <workbookView xWindow="68720" yWindow="160" windowWidth="25600" windowHeight="10000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dump-qa-client.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>Client Id</t>
   </si>
@@ -297,7 +297,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>Used</t>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,8 +370,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -416,15 +418,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -438,6 +440,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -451,6 +454,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -780,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -797,7 +801,7 @@
     <col min="7" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>89</v>
       </c>
@@ -817,476 +821,469 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5104176</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>91</v>
+      </c>
+      <c r="B2" s="6">
+        <v>5026820</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7">
+        <v>45830360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5133616</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="3">
-        <v>15241255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>91</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5042689</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7">
+        <v>62247311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5146656</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>91</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5052227</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5161377</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>91</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5052607</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="10">
-        <v>5005797</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
+      <c r="B6" s="6">
+        <v>5104676</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5844815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="10">
-        <v>5011486</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
+      <c r="B7" s="6">
+        <v>5119697</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7">
-        <v>13008542</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>55</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="6">
-        <v>5026820</v>
+        <v>5129697</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F8" s="7">
-        <v>45830360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>22213050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B9" s="6">
-        <v>5030870</v>
+        <v>5153378</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>69</v>
+      </c>
+      <c r="F9" s="7">
+        <v>24848645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="6">
-        <v>5042689</v>
+        <v>5173336</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="7">
-        <v>62247311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>79</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B11" s="6">
-        <v>5047546</v>
+        <v>5175086</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="6">
-        <v>5052227</v>
+        <v>5175223</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B13" s="6">
-        <v>5052607</v>
+        <v>5047546</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="10">
-        <v>5100876</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>36</v>
+        <v>92</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5005797</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="6">
-        <v>5104676</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>92</v>
+      </c>
+      <c r="B15" s="8">
+        <v>5011486</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F15" s="7">
-        <v>5844815</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>13008542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="10">
-        <v>5107936</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>48</v>
+        <v>92</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5030870</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="10">
-        <v>5119156</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>51</v>
+        <v>92</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5100876</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="6">
-        <v>5119697</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>55</v>
+        <v>92</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5107936</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="6">
-        <v>5129697</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="7">
-        <v>22213050</v>
+        <v>92</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5119156</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="6">
-        <v>5153378</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>69</v>
+        <v>92</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5167510</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="F20" s="7">
-        <v>24848645</v>
+        <v>53597706</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="6">
-        <v>5167510</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="7">
-        <v>53597706</v>
+        <v>90</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5104176</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="6">
-        <v>5173336</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5133616</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="3">
+        <v>15241255</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="6">
-        <v>5175086</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5146656</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="6">
-        <v>5175223</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5161377</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J24">
-    <sortCondition descending="1" ref="A2:A24"/>
-    <sortCondition ref="B2:B24"/>
+  <sortState ref="A2:F25">
+    <sortCondition ref="A25"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/svbWebPaymentUsers/QA/dump-qa-client.xlsx
+++ b/svbWebPaymentUsers/QA/dump-qa-client.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="68720" yWindow="160" windowWidth="25600" windowHeight="10000" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="63920" yWindow="3000" windowWidth="25600" windowHeight="10000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dump-qa-client.csv" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,6 +423,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -786,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1063,22 +1070,22 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="8">
-        <v>5005797</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>8</v>
+        <v>91</v>
+      </c>
+      <c r="B14" s="11">
+        <v>5011486</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7">
+        <v>13008542</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1086,19 +1093,19 @@
         <v>92</v>
       </c>
       <c r="B15" s="8">
-        <v>5011486</v>
+        <v>5005797</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7">
-        <v>13008542</v>
+        <v>7</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1282,8 +1289,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F25">
-    <sortCondition ref="A25"/>
+  <sortState ref="A2:F24">
+    <sortCondition ref="A2:A24"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
